--- a/hw03/kmap.xlsx
+++ b/hw03/kmap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\work\cs2110\spring21\HW03-Spring21\student\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrchargerlover\Documents\Programming Archive\CS_2110\hw03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABF0F1F-FA04-42E7-BD0C-31A3798ED8A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EDE72F-7DA0-4C86-BFC6-EB9526071A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="12780" windowHeight="17235" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t>A</t>
   </si>
@@ -73,6 +73,45 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>S1S0</t>
+  </si>
+  <si>
+    <t>S1S0'</t>
+  </si>
+  <si>
+    <t>S1'S0'</t>
+  </si>
+  <si>
+    <t>S1'S0</t>
+  </si>
+  <si>
+    <t>S1+S0</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>G'</t>
+  </si>
+  <si>
+    <t>S0'+S1'</t>
+  </si>
+  <si>
+    <t>S1S0+S1'S0'</t>
+  </si>
+  <si>
+    <t>S0</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>G'S0'+G'S1'</t>
+  </si>
+  <si>
+    <t>S0G+S0S1'</t>
   </si>
 </sst>
 </file>
@@ -525,7 +564,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,217 +577,457 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="G13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="G17" s="2"/>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H17" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="G21" s="2"/>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="G25" s="2"/>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="G29" s="2"/>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H29" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
